--- a/Incentive_COM/result/Lê Ngọc Hân.xlsx
+++ b/Incentive_COM/result/Lê Ngọc Hân.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="86">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -74,9 +74,6 @@
     <t>SLOB performance</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hạnh</t>
-  </si>
-  <si>
     <t>Hoàng Dương Huy Bảo</t>
   </si>
   <si>
@@ -86,178 +83,172 @@
     <t>Nguyễn Thị Thanh Xuân</t>
   </si>
   <si>
-    <t>LVN CPD</t>
+    <t>Huỳnh Lê Tâm</t>
+  </si>
+  <si>
+    <t>NUTIFOOD</t>
+  </si>
+  <si>
+    <t>CARLSBERG</t>
+  </si>
+  <si>
+    <t>FONTERRA</t>
+  </si>
+  <si>
+    <t>ARCHCAFE</t>
   </si>
   <si>
     <t>MONDELEZ</t>
   </si>
   <si>
-    <t>NUTIFOOD</t>
-  </si>
-  <si>
-    <t>CARLSBERG</t>
-  </si>
-  <si>
-    <t>FONTERRA</t>
-  </si>
-  <si>
-    <t>ARCHCAFE</t>
-  </si>
-  <si>
-    <t>LOREAL PARIS - TIKI</t>
-  </si>
-  <si>
-    <t>MAYBELLINE - TIKI</t>
+    <t>NUTIFOOD - LAZADA</t>
+  </si>
+  <si>
+    <t>CARLSBERG - LAZADA</t>
+  </si>
+  <si>
+    <t>CARLSBERG - TIKI</t>
+  </si>
+  <si>
+    <t>CARLSBERG - SHOPEE</t>
+  </si>
+  <si>
+    <t>CARLSBERG - B2B</t>
+  </si>
+  <si>
+    <t>GROWPLUS - LAZADA</t>
+  </si>
+  <si>
+    <t>FONTERRA - SENDO</t>
+  </si>
+  <si>
+    <t>ARCHCAFE - SHOPEE</t>
+  </si>
+  <si>
+    <t>ARCHCAFE - LAZADA</t>
+  </si>
+  <si>
+    <t>ARCHCAFE - TIKI</t>
+  </si>
+  <si>
+    <t>FONTERRA - LAZADA</t>
+  </si>
+  <si>
+    <t>MONDELEZ - LAZADA</t>
+  </si>
+  <si>
+    <t>MONDELEZ - B2B</t>
   </si>
   <si>
     <t>MONDELEZ - SHOPEE</t>
   </si>
   <si>
-    <t>NUTIFOOD - LAZADA</t>
-  </si>
-  <si>
-    <t>CARLSBERG - LAZADA</t>
-  </si>
-  <si>
-    <t>CARLSBERG - TIKI</t>
-  </si>
-  <si>
-    <t>CARLSBERG - SHOPEE</t>
-  </si>
-  <si>
-    <t>CARLSBERG - B2B</t>
-  </si>
-  <si>
-    <t>GROWPLUS - LAZADA</t>
-  </si>
-  <si>
-    <t>FONTERRA - SENDO</t>
-  </si>
-  <si>
-    <t>ARCHCAFE - SHOPEE</t>
-  </si>
-  <si>
-    <t>ARCHCAFE - LAZADA</t>
-  </si>
-  <si>
-    <t>ARCHCAFE - TIKI</t>
-  </si>
-  <si>
-    <t>FONTERRA - LAZADA</t>
-  </si>
-  <si>
-    <t>MONDELEZ - LAZADA</t>
-  </si>
-  <si>
-    <t>MONDELEZ - B2B</t>
+    <t>GROWPLUS - SHOPEE</t>
+  </si>
+  <si>
+    <t>NUTIFOOD - SHOPEE</t>
   </si>
   <si>
     <t>B2C</t>
   </si>
   <si>
+    <t>B2B</t>
+  </si>
+  <si>
     <t>KAM</t>
   </si>
   <si>
-    <t>B2B</t>
-  </si>
-  <si>
     <t>Lê Ngọc Hân</t>
   </si>
   <si>
+    <t>Phạm Minh Trí</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hồng Nhung</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>105.39%</t>
-  </si>
-  <si>
-    <t>7.29%</t>
-  </si>
-  <si>
-    <t>14.68%</t>
-  </si>
-  <si>
-    <t>21.92%</t>
-  </si>
-  <si>
-    <t>302.19%</t>
-  </si>
-  <si>
-    <t>71.60%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>186.74%</t>
-  </si>
-  <si>
-    <t>27.41%</t>
-  </si>
-  <si>
-    <t>57.56%</t>
+    <t>337.63%</t>
+  </si>
+  <si>
+    <t>57.55%</t>
+  </si>
+  <si>
+    <t>243.12%</t>
+  </si>
+  <si>
+    <t>34.92%</t>
+  </si>
+  <si>
+    <t>95.33%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>110.12%</t>
-  </si>
-  <si>
-    <t>15.37%</t>
-  </si>
-  <si>
-    <t>97.94%</t>
-  </si>
-  <si>
-    <t>74.16%</t>
-  </si>
-  <si>
-    <t>27.88%</t>
-  </si>
-  <si>
-    <t>185.97%</t>
-  </si>
-  <si>
-    <t>149.19%</t>
-  </si>
-  <si>
-    <t>291.40%</t>
-  </si>
-  <si>
-    <t>113.58%</t>
-  </si>
-  <si>
-    <t>109.93%</t>
-  </si>
-  <si>
-    <t>152.46%</t>
-  </si>
-  <si>
-    <t>183.48%</t>
-  </si>
-  <si>
-    <t>536.14%</t>
-  </si>
-  <si>
-    <t>314.23%</t>
-  </si>
-  <si>
-    <t>4168.35%</t>
-  </si>
-  <si>
-    <t>4175.63%</t>
-  </si>
-  <si>
-    <t>-21.27%</t>
-  </si>
-  <si>
-    <t>-23.67%</t>
-  </si>
-  <si>
-    <t>-21.34%</t>
+    <t>164.49%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
+    <t>78.41%</t>
+  </si>
+  <si>
+    <t>112.76%</t>
+  </si>
+  <si>
+    <t>392.00%</t>
+  </si>
+  <si>
+    <t>265.54%</t>
+  </si>
+  <si>
+    <t>207.94%</t>
+  </si>
+  <si>
+    <t>354.15%</t>
+  </si>
+  <si>
+    <t>179.63%</t>
+  </si>
+  <si>
+    <t>131.43%</t>
+  </si>
+  <si>
+    <t>164.99%</t>
+  </si>
+  <si>
+    <t>220.76%</t>
+  </si>
+  <si>
+    <t>140.22%</t>
+  </si>
+  <si>
+    <t>119.68%</t>
+  </si>
+  <si>
+    <t>43896.93%</t>
+  </si>
+  <si>
+    <t>194.25%</t>
+  </si>
+  <si>
+    <t>380.90%</t>
+  </si>
+  <si>
+    <t>-21.35%</t>
+  </si>
+  <si>
+    <t>369.35%</t>
+  </si>
+  <si>
+    <t>2.88%</t>
+  </si>
+  <si>
+    <t>72.99%</t>
   </si>
   <si>
     <t>Name</t>
@@ -266,28 +257,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>132.15%</t>
-  </si>
-  <si>
-    <t>161.63%</t>
-  </si>
-  <si>
-    <t>413.35%</t>
-  </si>
-  <si>
-    <t>12.00%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>47.00%</t>
+    <t>211.60%</t>
+  </si>
+  <si>
+    <t>221.83%</t>
+  </si>
+  <si>
+    <t>96.80%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
   </si>
   <si>
     <t>40.00%</t>
   </si>
   <si>
-    <t>33.60%</t>
+    <t>30.00%</t>
   </si>
 </sst>
 </file>
@@ -739,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>49</v>
@@ -760,13 +745,13 @@
         <v>50</v>
       </c>
       <c r="J2" s="2">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>55092.985</v>
+        <v>47000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -778,16 +763,16 @@
         <v>50</v>
       </c>
       <c r="P2" s="2">
-        <v>630.864</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>4297.25283</v>
+        <v>3854</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -795,13 +780,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -819,13 +804,13 @@
         <v>50</v>
       </c>
       <c r="J3" s="2">
-        <v>2035</v>
+        <v>29174</v>
       </c>
       <c r="K3" s="2">
-        <v>9284.994999999999</v>
+        <v>12000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -837,16 +822,16 @@
         <v>50</v>
       </c>
       <c r="P3" s="2">
-        <v>158.73</v>
+        <v>3413.358</v>
       </c>
       <c r="Q3" s="2">
-        <v>724.2296099999999</v>
+        <v>1404</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -857,10 +842,10 @@
         <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>48</v>
@@ -878,101 +863,101 @@
         <v>50</v>
       </c>
       <c r="J4" s="2">
-        <v>47142</v>
+        <v>1746</v>
       </c>
       <c r="K4" s="2">
-        <v>15600</v>
+        <v>5000</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="2">
+        <v>204.282</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>585</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2860</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="2">
-        <v>7872.714000000001</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>2605.2</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="2">
+        <v>334.62</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>351</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="3">
-        <v>57265</v>
-      </c>
-      <c r="K5" s="3">
-        <v>79977.98</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="3">
-        <v>8662.308000000001</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>7626.68244</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>75</v>
+      <c r="S5" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -987,60 +972,60 @@
         <v>49</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>101290</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2">
-        <v>10666</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>95000</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>6786.43</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="2">
-        <v>874.6120000000001</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>7790</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>49</v>
@@ -1055,13 +1040,13 @@
         <v>50</v>
       </c>
       <c r="J7" s="2">
-        <v>41083</v>
+        <v>76426</v>
       </c>
       <c r="K7" s="2">
-        <v>21999.99999999999</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1073,75 +1058,75 @@
         <v>50</v>
       </c>
       <c r="P7" s="2">
-        <v>4929.96</v>
+        <v>6266.932000000001</v>
       </c>
       <c r="Q7" s="2">
-        <v>2639.999999999999</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4934</v>
-      </c>
-      <c r="K8" s="2">
-        <v>18000</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="2">
-        <v>592.0799999999999</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2160</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>50</v>
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>101290</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="3">
+        <v>110206</v>
+      </c>
+      <c r="K8" s="3">
+        <v>67000</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="3">
+        <v>6786.43</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2010</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10219.192</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>6194</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1149,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>
@@ -1173,13 +1158,13 @@
         <v>50</v>
       </c>
       <c r="J9" s="2">
-        <v>2878</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
-        <v>4999.999999999999</v>
+        <v>3100</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1191,16 +1176,16 @@
         <v>50</v>
       </c>
       <c r="P9" s="2">
-        <v>345.36</v>
+        <v>1.673333333333333</v>
       </c>
       <c r="Q9" s="2">
-        <v>599.9999999999999</v>
+        <v>259.3666666666667</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1211,55 +1196,55 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="2">
-        <v>131740</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>125000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>2164</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M10" s="2">
-        <v>9221.800000000001</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>8750</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>77.904</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>99.36</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1267,16 +1252,16 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>49</v>
@@ -1291,110 +1276,110 @@
         <v>50</v>
       </c>
       <c r="J11" s="2">
-        <v>94607</v>
+        <v>3315</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>2940</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="2">
+        <v>119.34</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>105.84</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="2">
+        <v>392</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="2">
-        <v>7757.774</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="2">
+        <v>14.112</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>131740</v>
-      </c>
-      <c r="H12" s="3">
-        <v>125000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="3">
-        <v>154168</v>
-      </c>
-      <c r="K12" s="3">
-        <v>140000</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9221.800000000001</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8750</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" s="3">
-        <v>14499.786</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>13190</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>77</v>
+      <c r="S12" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>49</v>
@@ -1409,93 +1394,93 @@
         <v>50</v>
       </c>
       <c r="J13" s="2">
-        <v>999</v>
+        <v>58153</v>
       </c>
       <c r="K13" s="2">
-        <v>6500</v>
+        <v>21900</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4865.467666666666</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1832.3</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3">
+        <v>64044</v>
+      </c>
+      <c r="K14" s="3">
+        <v>30800</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="2">
-        <v>47.952</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>312</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5425</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5539</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="2">
-        <v>195.3</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>199.404</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>79</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5078.496999999999</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>2300.466666666667</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1503,16 +1488,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>49</v>
@@ -1527,13 +1512,13 @@
         <v>50</v>
       </c>
       <c r="J15" s="2">
-        <v>3597</v>
+        <v>141660</v>
       </c>
       <c r="K15" s="2">
-        <v>4850</v>
+        <v>40000</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -1545,16 +1530,16 @@
         <v>50</v>
       </c>
       <c r="P15" s="2">
-        <v>129.492</v>
+        <v>15157.62</v>
       </c>
       <c r="Q15" s="2">
-        <v>174.6</v>
+        <v>4280</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1562,176 +1547,176 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>17264</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" s="2">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1277.536</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>2220</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="2">
-        <v>11.34</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>40.68</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>17264</v>
+      </c>
+      <c r="H17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3">
+        <v>141660</v>
+      </c>
+      <c r="K17" s="3">
+        <v>40000</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1277.536</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2220</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="3">
+        <v>15157.62</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>4280</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="2">
-        <v>83688</v>
-      </c>
-      <c r="K17" s="2">
-        <v>45002</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="2">
-        <v>4017.024</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>2160.096</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="3">
-        <v>94024</v>
-      </c>
-      <c r="K18" s="3">
-        <v>63021</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="3">
-        <v>4401.108</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2886.78</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>80</v>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="2">
+        <v>53888</v>
+      </c>
+      <c r="K18" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5766.016</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3210</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1739,16 +1724,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -1763,13 +1748,13 @@
         <v>50</v>
       </c>
       <c r="J19" s="2">
-        <v>106069</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>36400</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -1781,16 +1766,16 @@
         <v>50</v>
       </c>
       <c r="P19" s="2">
-        <v>17713.523</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>6078.8</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1798,58 +1783,58 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="2">
-        <v>8234</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>113000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M20" s="2">
-        <v>606.8458000000001</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>8328.1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1857,10 +1842,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>46</v>
@@ -1872,43 +1857,43 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>8234</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>113000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" s="3">
-        <v>106069</v>
+        <v>53888</v>
       </c>
       <c r="K21" s="3">
-        <v>36400</v>
+        <v>41000</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M21" s="3">
-        <v>606.8458000000001</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>8328.1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" s="3">
-        <v>17713.523</v>
+        <v>5766.016</v>
       </c>
       <c r="Q21" s="3">
-        <v>6078.8</v>
+        <v>4112</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1911,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1968,218 +1953,218 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="2">
+        <v>101290</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="2">
-        <v>57265</v>
+        <v>110206</v>
       </c>
       <c r="F2" s="2">
-        <v>79977.98</v>
+        <v>67000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6786.43</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2010</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K2" s="2">
-        <v>8662.308000000001</v>
+        <v>10219.192</v>
       </c>
       <c r="L2" s="2">
-        <v>7626.68244</v>
+        <v>6194</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
-        <v>131740</v>
-      </c>
-      <c r="C3" s="2">
-        <v>125000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>154168</v>
+        <v>64044</v>
       </c>
       <c r="F3" s="2">
-        <v>140000</v>
+        <v>30800</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="2">
-        <v>9221.800000000001</v>
-      </c>
-      <c r="I3" s="2">
-        <v>8750</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>14499.786</v>
+        <v>5078.496999999999</v>
       </c>
       <c r="L3" s="2">
-        <v>13190</v>
+        <v>2300.466666666667</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2">
+        <v>17264</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="2">
-        <v>94024</v>
+        <v>141660</v>
       </c>
       <c r="F4" s="2">
-        <v>63021</v>
+        <v>40000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1277.536</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2220</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="2">
-        <v>4401.108</v>
+        <v>15157.62</v>
       </c>
       <c r="L4" s="2">
-        <v>2886.78</v>
+        <v>4280</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2">
-        <v>8234</v>
-      </c>
-      <c r="C5" s="2">
-        <v>113000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>106069</v>
+        <v>53888</v>
       </c>
       <c r="F5" s="2">
-        <v>36400</v>
+        <v>41000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="2">
-        <v>606.8458000000001</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8328.1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>17713.523</v>
+        <v>5766.016</v>
       </c>
       <c r="L5" s="2">
-        <v>6078.8</v>
+        <v>4112</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4">
-        <v>8234</v>
+        <v>17264</v>
       </c>
       <c r="C6" s="4">
-        <v>113000</v>
+        <v>30000</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="4">
-        <v>362631</v>
+        <v>336018</v>
       </c>
       <c r="F6" s="4">
-        <v>274398.98</v>
+        <v>158800</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="4">
-        <v>606.8458000000001</v>
+        <v>1277.536</v>
       </c>
       <c r="I6" s="4">
-        <v>8328.1</v>
+        <v>2220</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="4">
-        <v>39409.325</v>
+        <v>32269.065</v>
       </c>
       <c r="L6" s="4">
-        <v>24382.26244</v>
+        <v>14546.46666666667</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
